--- a/Question_Set2/Role-specific skills/US Employment Law.xlsx
+++ b/Question_Set2/Role-specific skills/US Employment Law.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As the people manager for a wholesale food distributor, you receive a notice from a former employee who has filed a civil lawsuit for employment discrimination based on race. The owner is deciding whether to settle the case out of court and asks you which party has the burden of proof.What is your response?', 'ques_type': 2, 'options': ['The former employee', 'The company', 'The Equal Employment Opportunity Commission (EEOC)', 'The state unemployment bureau'], 'score': 'The former employee'}, {'title': 'You are the HR manager for a cardboard packaging manufacturer. A warehouse employee has approached you to initiate a claim of harassment against their supervisor. In investigating the facts of the case, which of the employee’s allegations could you consider quid pro quo harassment?', 'ques_type': 2, 'options': ['The supervisor called the employee pet names such as “sweetheart” and “honey” in front of other team members.', 'The supervisor sent the employee multiple friend requests on social media that the employee ignored or declined. ', 'The supervisor demoted the employee from a team leader position after the employee turned down a date with the supervisor.', 'The supervisor gave the employee several unwanted hugs after the employee told the supervisor to stop.'], 'score': 'The supervisor demoted the employee from a team leader position after the employee turned down a date with the supervisor.'}, {'title': 'An employee at the firm where you are an HR generalist has approached you outside of the company’s open enrollment period to add an adopted dependent child to their company-sponsored health plan. What information should you request from the employee to ensure this meets the requirements for an IRS (Internal Revenue Service) qualifying event?', 'ques_type': 2, 'options': ['The employee’s federal tax return showing their child as a qualified tax dependent for the previous filing year.', 'A court order verifying adoption placement of the child with the employee as their dependent within the last six months.', 'The dependent child’s original birth certificate or certified copy listing the employee as the legal parent.', "A notice from the state’s Children's Health Insurance Program (CHIP) verifying the dependent child’s loss of coverage within the last 60 days."], 'score': "A notice from the state’s Children's Health Insurance Program (CHIP) verifying the dependent child’s loss of coverage within the last 60 days."}, {'title': 'You are the benefits manager for a hotel chain with 100 employees. A housekeeper requests sick leave under the Family Medical Leave Act (FMLA) after coming down with the flu. You are responsible for determining their eligibility for FMLA leave.What would qualify this employee to take an approved FMLA leave?', 'ques_type': 2, 'options': ['Being off work for three or more days, seeing a doctor, and taking prescribed medicine to treat the flu.', 'Being off work for five or more days, seeing a doctor, and being certified as unable to work due to the flu.', 'Being off work for seven or more days, seeing a doctor, and taking over-the-counter medications for flu symptoms.', 'Being off work for five or more days while contagious with the flu, regardless of a doctor’s visit.'], 'score': 'Being off work for three or more days, seeing a doctor, and taking prescribed medicine to treat the flu.'}]</t>
+    <t>questions = [
+    {
+        "title": "As the people manager for a wholesale food distributor, you receive a notice from a former employee who has filed a civil lawsuit for employment discrimination based on race. The owner is deciding whether to settle the case out of court and asks you which party has the burden of proof.What is your response?",
+        "ques_type": 2,
+        "options": [
+            "The former employee",
+            "The company",
+            "The Equal Employment Opportunity Commission (EEOC)",
+            "The state unemployment bureau"
+        ],
+        "score": "The former employee"
+    },
+    {
+        "title": "You are the HR manager for a cardboard packaging manufacturer. A warehouse employee has approached you to initiate a claim of harassment against their supervisor. In investigating the facts of the case, which of the employee\u2019s allegations could you consider quid pro quo harassment?",
+        "ques_type": 2,
+        "options": [
+            "The supervisor called the employee pet names such as \u201csweetheart\u201d and \u201choney\u201d in front of other team members.",
+            "The supervisor sent the employee multiple friend requests on social media that the employee ignored or declined. ",
+            "The supervisor demoted the employee from a team leader position after the employee turned down a date with the supervisor.",
+            "The supervisor gave the employee several unwanted hugs after the employee told the supervisor to stop."
+        ],
+        "score": "The supervisor demoted the employee from a team leader position after the employee turned down a date with the supervisor."
+    },
+    {
+        "title": "An employee at the firm where you are an HR generalist has approached you outside of the company\u2019s open enrollment period to add an adopted dependent child to their company-sponsored health plan. What information should you request from the employee to ensure this meets the requirements for an IRS (Internal Revenue Service) qualifying event?",
+        "ques_type": 2,
+        "options": [
+            "The employee\u2019s federal tax return showing their child as a qualified tax dependent for the previous filing year.",
+            "A court order verifying adoption placement of the child with the employee as their dependent within the last six months.",
+            "The dependent child\u2019s original birth certificate or certified copy listing the employee as the legal parent.",
+            "A notice from the state\u2019s Children's Health Insurance Program (CHIP) verifying the dependent child\u2019s loss of coverage within the last 60 days."
+        ],
+        "score": "A notice from the state\u2019s Children's Health Insurance Program (CHIP) verifying the dependent child\u2019s loss of coverage within the last 60 days."
+    },
+    {
+        "title": "You are the benefits manager for a hotel chain with 100 employees. A housekeeper requests sick leave under the Family Medical Leave Act (FMLA) after coming down with the flu. You are responsible for determining their eligibility for FMLA leave.What would qualify this employee to take an approved FMLA leave?",
+        "ques_type": 2,
+        "options": [
+            "Being off work for three or more days, seeing a doctor, and taking prescribed medicine to treat the flu.",
+            "Being off work for five or more days, seeing a doctor, and being certified as unable to work due to the flu.",
+            "Being off work for seven or more days, seeing a doctor, and taking over-the-counter medications for flu symptoms.",
+            "Being off work for five or more days while contagious with the flu, regardless of a doctor\u2019s visit."
+        ],
+        "score": "Being off work for three or more days, seeing a doctor, and taking prescribed medicine to treat the flu."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
